--- a/3-data-analysis/athletes-corr.xlsx
+++ b/3-data-analysis/athletes-corr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>rcc</t>
   </si>
@@ -404,401 +404,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="B2">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0.15</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.92</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.89</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.25</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-0.4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.49</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.55</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.36</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>0.15</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.15</v>
-      </c>
-      <c r="D3">
-        <v>0.13</v>
       </c>
       <c r="E3">
         <v>0.13</v>
       </c>
       <c r="F3">
+        <v>0.13</v>
+      </c>
+      <c r="G3">
         <v>0.18</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.14</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.11</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.08</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.16</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>0.92</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.15</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.95</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.26</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.32</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.45</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-0.53</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.58</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.37</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.42</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0.89</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.13</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.95</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.31</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.38</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.44</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.53</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.61</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.35</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.46</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>0.25</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.13</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.26</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.31</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.11</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.18</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.32</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.12</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>0.3</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.18</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.32</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.38</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.32</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.19</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.71</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.34</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>-0.4</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.14</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-0.45</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.44</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.11</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.32</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.96</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.21</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>-0.49</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.11</v>
-      </c>
-      <c r="C9">
-        <v>-0.53</v>
       </c>
       <c r="D9">
         <v>-0.53</v>
       </c>
       <c r="E9">
+        <v>-0.53</v>
+      </c>
+      <c r="F9">
         <v>-0.18</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.19</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.96</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.36</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-0.19</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>0.55</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.1</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.58</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.61</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.32</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.71</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.21</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.36</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.8</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>0.36</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.08</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.37</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.35</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.12</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.34</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.19</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.8</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.78</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>0.4</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.16</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.42</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.46</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.27</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.85</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.15</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.93</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.78</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:K12">
+  <conditionalFormatting sqref="B2:L12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
